--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt3-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt3-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H2">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N2">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q2">
-        <v>0.1528346448721111</v>
+        <v>0.01568164478888889</v>
       </c>
       <c r="R2">
-        <v>1.375511803849</v>
+        <v>0.1411348031</v>
       </c>
       <c r="S2">
-        <v>0.05417001519008476</v>
+        <v>0.003704503314178453</v>
       </c>
       <c r="T2">
-        <v>0.05417001519008476</v>
+        <v>0.003704503314178452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H3">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q3">
-        <v>0.9379950150826666</v>
+        <v>0.1685977002666667</v>
       </c>
       <c r="R3">
-        <v>8.441955135743999</v>
+        <v>1.5173793024</v>
       </c>
       <c r="S3">
-        <v>0.3324586794948855</v>
+        <v>0.03982813970147232</v>
       </c>
       <c r="T3">
-        <v>0.3324586794948855</v>
+        <v>0.03982813970147231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H4">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N4">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O4">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P4">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q4">
-        <v>0.7770288566667776</v>
+        <v>0.1062779851777778</v>
       </c>
       <c r="R4">
-        <v>6.993259710000999</v>
+        <v>0.9565018666000001</v>
       </c>
       <c r="S4">
-        <v>0.2754065676927831</v>
+        <v>0.0251062406791821</v>
       </c>
       <c r="T4">
-        <v>0.2754065676927832</v>
+        <v>0.0251062406791821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H5">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N5">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q5">
-        <v>0.2991176072304444</v>
+        <v>0.04460607893333333</v>
       </c>
       <c r="R5">
-        <v>2.692058465074</v>
+        <v>0.4014547104</v>
       </c>
       <c r="S5">
-        <v>0.1060178818804695</v>
+        <v>0.01053737471200221</v>
       </c>
       <c r="T5">
-        <v>0.1060178818804695</v>
+        <v>0.0105373747120022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02136666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.0641</v>
+      </c>
+      <c r="I6">
+        <v>0.1036512402574302</v>
+      </c>
+      <c r="J6">
+        <v>0.1036512402574302</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.848944666666667</v>
+      </c>
+      <c r="N6">
+        <v>14.546834</v>
+      </c>
+      <c r="O6">
+        <v>0.2361282102347124</v>
+      </c>
+      <c r="P6">
+        <v>0.2361282102347124</v>
+      </c>
+      <c r="Q6">
+        <v>0.1036057843777778</v>
+      </c>
+      <c r="R6">
+        <v>0.9324520594000001</v>
+      </c>
+      <c r="S6">
+        <v>0.02447498185059517</v>
+      </c>
+      <c r="T6">
+        <v>0.02447498185059517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.125821</v>
+      </c>
+      <c r="I7">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J7">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7339303333333334</v>
+      </c>
+      <c r="N7">
+        <v>2.201791</v>
+      </c>
+      <c r="O7">
+        <v>0.03574007706012852</v>
+      </c>
+      <c r="P7">
+        <v>0.03574007706012852</v>
+      </c>
+      <c r="Q7">
+        <v>0.03078128282344444</v>
+      </c>
+      <c r="R7">
+        <v>0.277031545411</v>
+      </c>
+      <c r="S7">
+        <v>0.007271518120019454</v>
+      </c>
+      <c r="T7">
+        <v>0.007271518120019453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.125821</v>
+      </c>
+      <c r="I8">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J8">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.890688</v>
+      </c>
+      <c r="N8">
+        <v>23.672064</v>
+      </c>
+      <c r="O8">
+        <v>0.3842514532634088</v>
+      </c>
+      <c r="P8">
+        <v>0.3842514532634088</v>
+      </c>
+      <c r="Q8">
+        <v>0.3309380849493333</v>
+      </c>
+      <c r="R8">
+        <v>2.978442764543999</v>
+      </c>
+      <c r="S8">
+        <v>0.07817810242400854</v>
+      </c>
+      <c r="T8">
+        <v>0.07817810242400852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.125821</v>
+      </c>
+      <c r="I9">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J9">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.974008666666667</v>
+      </c>
+      <c r="N9">
+        <v>14.922026</v>
+      </c>
+      <c r="O9">
+        <v>0.2422184299659874</v>
+      </c>
+      <c r="P9">
+        <v>0.2422184299659874</v>
+      </c>
+      <c r="Q9">
+        <v>0.2086115814828889</v>
+      </c>
+      <c r="R9">
+        <v>1.877504233346</v>
+      </c>
+      <c r="S9">
+        <v>0.04928069124017739</v>
+      </c>
+      <c r="T9">
+        <v>0.04928069124017739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.125821</v>
+      </c>
+      <c r="I10">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J10">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.087648</v>
+      </c>
+      <c r="N10">
+        <v>6.262943999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1016618294757629</v>
+      </c>
+      <c r="P10">
+        <v>0.1016618294757629</v>
+      </c>
+      <c r="Q10">
+        <v>0.08755665300266664</v>
+      </c>
+      <c r="R10">
+        <v>0.7880098770239998</v>
+      </c>
+      <c r="S10">
+        <v>0.02068366651542636</v>
+      </c>
+      <c r="T10">
+        <v>0.02068366651542635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.125821</v>
+      </c>
+      <c r="I11">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J11">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.848944666666667</v>
+      </c>
+      <c r="N11">
+        <v>14.546834</v>
+      </c>
+      <c r="O11">
+        <v>0.2361282102347124</v>
+      </c>
+      <c r="P11">
+        <v>0.2361282102347124</v>
+      </c>
+      <c r="Q11">
+        <v>0.2033663556348889</v>
+      </c>
+      <c r="R11">
+        <v>1.830297200714</v>
+      </c>
+      <c r="S11">
+        <v>0.04804160205029227</v>
+      </c>
+      <c r="T11">
+        <v>0.04804160205029227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.142833</v>
+      </c>
+      <c r="H12">
+        <v>0.428499</v>
+      </c>
+      <c r="I12">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J12">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7339303333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.201791</v>
+      </c>
+      <c r="O12">
+        <v>0.03574007706012852</v>
+      </c>
+      <c r="P12">
+        <v>0.03574007706012852</v>
+      </c>
+      <c r="Q12">
+        <v>0.104829471301</v>
+      </c>
+      <c r="R12">
+        <v>0.9434652417089999</v>
+      </c>
+      <c r="S12">
+        <v>0.02476405562593061</v>
+      </c>
+      <c r="T12">
+        <v>0.02476405562593061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.1188736666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.356621</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>5.505106</v>
-      </c>
-      <c r="N6">
-        <v>16.515318</v>
-      </c>
-      <c r="O6">
-        <v>0.231946855741777</v>
-      </c>
-      <c r="P6">
-        <v>0.2319468557417771</v>
-      </c>
-      <c r="Q6">
-        <v>0.6544121356086666</v>
-      </c>
-      <c r="R6">
-        <v>5.889709220477999</v>
-      </c>
-      <c r="S6">
-        <v>0.231946855741777</v>
-      </c>
-      <c r="T6">
-        <v>0.2319468557417771</v>
+      <c r="G13">
+        <v>0.142833</v>
+      </c>
+      <c r="H13">
+        <v>0.428499</v>
+      </c>
+      <c r="I13">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J13">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.890688</v>
+      </c>
+      <c r="N13">
+        <v>23.672064</v>
+      </c>
+      <c r="O13">
+        <v>0.3842514532634088</v>
+      </c>
+      <c r="P13">
+        <v>0.3842514532634088</v>
+      </c>
+      <c r="Q13">
+        <v>1.127050639104</v>
+      </c>
+      <c r="R13">
+        <v>10.143455751936</v>
+      </c>
+      <c r="S13">
+        <v>0.2662452111379279</v>
+      </c>
+      <c r="T13">
+        <v>0.2662452111379279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.142833</v>
+      </c>
+      <c r="H14">
+        <v>0.428499</v>
+      </c>
+      <c r="I14">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J14">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.974008666666667</v>
+      </c>
+      <c r="N14">
+        <v>14.922026</v>
+      </c>
+      <c r="O14">
+        <v>0.2422184299659874</v>
+      </c>
+      <c r="P14">
+        <v>0.2422184299659874</v>
+      </c>
+      <c r="Q14">
+        <v>0.710452579886</v>
+      </c>
+      <c r="R14">
+        <v>6.394073218973999</v>
+      </c>
+      <c r="S14">
+        <v>0.1678314980466279</v>
+      </c>
+      <c r="T14">
+        <v>0.1678314980466279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.142833</v>
+      </c>
+      <c r="H15">
+        <v>0.428499</v>
+      </c>
+      <c r="I15">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J15">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.087648</v>
+      </c>
+      <c r="N15">
+        <v>6.262943999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1016618294757629</v>
+      </c>
+      <c r="P15">
+        <v>0.1016618294757629</v>
+      </c>
+      <c r="Q15">
+        <v>0.2981850267839999</v>
+      </c>
+      <c r="R15">
+        <v>2.683665241056</v>
+      </c>
+      <c r="S15">
+        <v>0.07044078824833436</v>
+      </c>
+      <c r="T15">
+        <v>0.07044078824833434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.142833</v>
+      </c>
+      <c r="H16">
+        <v>0.428499</v>
+      </c>
+      <c r="I16">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J16">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.848944666666667</v>
+      </c>
+      <c r="N16">
+        <v>14.546834</v>
+      </c>
+      <c r="O16">
+        <v>0.2361282102347124</v>
+      </c>
+      <c r="P16">
+        <v>0.2361282102347124</v>
+      </c>
+      <c r="Q16">
+        <v>0.692589313574</v>
+      </c>
+      <c r="R16">
+        <v>6.233303822166</v>
+      </c>
+      <c r="S16">
+        <v>0.1636116263338249</v>
+      </c>
+      <c r="T16">
+        <v>0.1636116263338249</v>
       </c>
     </row>
   </sheetData>
